--- a/motiphysio_解釋對照表.xlsx
+++ b/motiphysio_解釋對照表.xlsx
@@ -925,7 +925,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -1280,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>76</v>
@@ -1304,10 +1304,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>75</v>
